--- a/library_data.xlsx
+++ b/library_data.xlsx
@@ -491,10 +491,8 @@
           <t>AJ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
+      <c r="F2" t="n">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
